--- a/Nitrogen fixation/daSilva_ME_16052430_CSC_Data.xlsx
+++ b/Nitrogen fixation/daSilva_ME_16052430_CSC_Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yasemin\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E425E15E-E008-4B4C-9F5B-17322DDECEA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9765" yWindow="5715" windowWidth="17760" windowHeight="8790" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment 1" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Experiment 1'!$B$1:$Q$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -155,7 +163,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss;@"/>
@@ -272,16 +280,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -314,6 +312,16 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -355,9 +363,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-ZA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -493,7 +501,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D43B-4714-82C0-55433530E9A9}"/>
             </c:ext>
@@ -595,7 +603,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D43B-4714-82C0-55433530E9A9}"/>
             </c:ext>
@@ -697,7 +705,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-D43B-4714-82C0-55433530E9A9}"/>
             </c:ext>
@@ -799,7 +807,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-D43B-4714-82C0-55433530E9A9}"/>
             </c:ext>
@@ -901,7 +909,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-D43B-4714-82C0-55433530E9A9}"/>
             </c:ext>
@@ -1003,7 +1011,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-D43B-4714-82C0-55433530E9A9}"/>
             </c:ext>
@@ -1118,9 +1126,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-ZA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1248,7 +1256,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B08F-422E-BFB1-E26560DB0F91}"/>
             </c:ext>
@@ -1341,7 +1349,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B08F-422E-BFB1-E26560DB0F91}"/>
             </c:ext>
@@ -1442,9 +1450,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-ZA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1562,7 +1570,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3421-430D-841A-BEC4281BDCEB}"/>
             </c:ext>
@@ -1646,7 +1654,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3421-430D-841A-BEC4281BDCEB}"/>
             </c:ext>
@@ -1755,9 +1763,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-ZA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1784,7 +1792,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1868,7 +1875,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F8BD-492C-ACE8-12D7EEF5D603}"/>
             </c:ext>
@@ -1949,7 +1956,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F8BD-492C-ACE8-12D7EEF5D603}"/>
             </c:ext>
@@ -2030,7 +2037,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F8BD-492C-ACE8-12D7EEF5D603}"/>
             </c:ext>
@@ -2111,7 +2118,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-F8BD-492C-ACE8-12D7EEF5D603}"/>
             </c:ext>
@@ -2192,7 +2199,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-F8BD-492C-ACE8-12D7EEF5D603}"/>
             </c:ext>
@@ -2273,7 +2280,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-F8BD-492C-ACE8-12D7EEF5D603}"/>
             </c:ext>
@@ -2313,7 +2320,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="m/d/yyyy\ h:mm" sourceLinked="1"/>
@@ -2347,7 +2353,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2361,7 +2366,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2377,9 +2381,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-ZA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2406,7 +2410,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2493,7 +2496,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E95A-4088-8F27-7DC14A04EBFA}"/>
             </c:ext>
@@ -2574,7 +2577,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E95A-4088-8F27-7DC14A04EBFA}"/>
             </c:ext>
@@ -2658,7 +2661,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E95A-4088-8F27-7DC14A04EBFA}"/>
             </c:ext>
@@ -2742,7 +2745,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E95A-4088-8F27-7DC14A04EBFA}"/>
             </c:ext>
@@ -2826,7 +2829,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-E95A-4088-8F27-7DC14A04EBFA}"/>
             </c:ext>
@@ -2910,7 +2913,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-E95A-4088-8F27-7DC14A04EBFA}"/>
             </c:ext>
@@ -2950,7 +2953,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="m/d/yyyy\ h:mm" sourceLinked="1"/>
@@ -2984,7 +2986,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2998,7 +2999,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3014,9 +3014,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-ZA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3120,7 +3120,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1FB4-4CC3-A933-3E41EAE887CE}"/>
             </c:ext>
@@ -3195,7 +3195,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1FB4-4CC3-A933-3E41EAE887CE}"/>
             </c:ext>
@@ -3270,7 +3270,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1FB4-4CC3-A933-3E41EAE887CE}"/>
             </c:ext>
@@ -3345,7 +3345,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1FB4-4CC3-A933-3E41EAE887CE}"/>
             </c:ext>
@@ -3420,7 +3420,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-1FB4-4CC3-A933-3E41EAE887CE}"/>
             </c:ext>
@@ -3495,7 +3495,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-1FB4-4CC3-A933-3E41EAE887CE}"/>
             </c:ext>
@@ -3596,9 +3596,9 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-ZA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3625,7 +3625,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3694,7 +3693,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-30BB-46C6-979F-83BABB151073}"/>
             </c:ext>
@@ -3760,7 +3759,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-30BB-46C6-979F-83BABB151073}"/>
             </c:ext>
@@ -3826,7 +3825,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-30BB-46C6-979F-83BABB151073}"/>
             </c:ext>
@@ -3866,7 +3865,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="m/d/yyyy\ h:mm" sourceLinked="1"/>
@@ -3900,7 +3898,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3914,7 +3911,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3930,9 +3926,9 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-ZA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3959,7 +3955,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4028,7 +4023,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B86C-43B3-B6D9-192672E184E8}"/>
             </c:ext>
@@ -4094,7 +4089,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B86C-43B3-B6D9-192672E184E8}"/>
             </c:ext>
@@ -4160,7 +4155,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B86C-43B3-B6D9-192672E184E8}"/>
             </c:ext>
@@ -4200,7 +4195,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="m/d/yyyy\ h:mm" sourceLinked="1"/>
@@ -4234,7 +4228,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4248,7 +4241,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4264,9 +4256,9 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-ZA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4361,7 +4353,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5C0F-4EC8-92C2-FED8D51D3738}"/>
             </c:ext>
@@ -4427,7 +4419,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5C0F-4EC8-92C2-FED8D51D3738}"/>
             </c:ext>
@@ -4493,7 +4485,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5C0F-4EC8-92C2-FED8D51D3738}"/>
             </c:ext>
@@ -4613,7 +4605,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4654,7 +4646,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4690,7 +4682,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4731,7 +4723,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4767,7 +4759,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4803,7 +4795,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4844,7 +4836,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4880,7 +4872,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4916,7 +4908,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4938,58 +4930,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D1:I67" totalsRowShown="0">
-  <autoFilter ref="D1:I67"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="D1:I67" totalsRowShown="0">
+  <autoFilter ref="D1:I67" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="date and time" dataDxfId="11"/>
-    <tableColumn id="2" name="Sample Number"/>
-    <tableColumn id="3" name="Description"/>
-    <tableColumn id="4" name="Juju"/>
-    <tableColumn id="5" name="Column1"/>
-    <tableColumn id="6" name="Column2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="date and time" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Sample Number"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Juju"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:H9" totalsRowShown="0">
-  <autoFilter ref="A1:H9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:H9" totalsRowShown="0">
+  <autoFilter ref="A1:H9" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Time"/>
-    <tableColumn id="2" name="Growth (OD600)" dataDxfId="10"/>
-    <tableColumn id="3" name="pH" dataDxfId="9"/>
-    <tableColumn id="4" name="Ammonia"/>
-    <tableColumn id="5" name="Biomass (cells/mL)" dataDxfId="8">
-      <calculatedColumnFormula>4.9*10^7*B2</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Time"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Growth (OD600)" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="pH" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Ammonia"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Biomass (cells/mL)" dataDxfId="1">
+      <calculatedColumnFormula>3*10^7*B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Biomass(g/L)" dataDxfId="7">
-      <calculatedColumnFormula>2.464*B2+0.023</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Biomass(g/L)" dataDxfId="0">
+      <calculatedColumnFormula>1*B2+0.023</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Biomass" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Biomass" dataDxfId="8">
       <calculatedColumnFormula>(1000*Table2[[#This Row],[Biomass(g/L)]])/24.6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Glucose" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Glucose" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:G9" totalsRowShown="0">
-  <autoFilter ref="A1:G9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table24" displayName="Table24" ref="A1:G9" totalsRowShown="0">
+  <autoFilter ref="A1:G9" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Time"/>
-    <tableColumn id="2" name="Growth (OD600)" dataDxfId="6"/>
-    <tableColumn id="3" name="pH" dataDxfId="5"/>
-    <tableColumn id="4" name="Ammonia"/>
-    <tableColumn id="5" name="Biomass (cells/mL)" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Time"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Growth (OD600)" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="pH" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Ammonia"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Biomass (cells/mL)" dataDxfId="4">
       <calculatedColumnFormula>4.9*10^7*B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Biomass(g/L)" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Biomass(g/L)" dataDxfId="3">
       <calculatedColumnFormula>2.464*B2+0.023</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Biomass" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Biomass" dataDxfId="2">
       <calculatedColumnFormula>2.464*B2+0.023</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5040,7 +5032,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5073,9 +5065,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5108,6 +5117,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5283,26 +5309,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:I67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.453125" customWidth="1"/>
+    <col min="11" max="11" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
@@ -5328,7 +5354,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -5360,7 +5386,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B3" s="1">
         <v>43871</v>
       </c>
@@ -5383,7 +5409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
         <v>43871</v>
       </c>
@@ -5406,7 +5432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>43871</v>
       </c>
@@ -5429,7 +5455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>43871</v>
       </c>
@@ -5452,7 +5478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
         <v>43871</v>
       </c>
@@ -5478,7 +5504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -5504,7 +5530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
         <v>43871</v>
       </c>
@@ -5527,7 +5553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <v>43871</v>
       </c>
@@ -5550,7 +5576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
         <v>43871</v>
       </c>
@@ -5573,7 +5599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B12" s="1">
         <v>43871</v>
       </c>
@@ -5596,7 +5622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
         <v>43871</v>
       </c>
@@ -5622,7 +5648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2</v>
       </c>
@@ -5648,7 +5674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <v>43872</v>
       </c>
@@ -5671,7 +5697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B16" s="1">
         <v>43872</v>
       </c>
@@ -5694,7 +5720,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B17" s="1">
         <v>43872</v>
       </c>
@@ -5717,7 +5743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B18" s="1">
         <v>43872</v>
       </c>
@@ -5740,7 +5766,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B19" s="1">
         <v>43872</v>
       </c>
@@ -5767,7 +5793,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>3</v>
       </c>
@@ -5793,7 +5819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B21" s="1">
         <v>43872</v>
       </c>
@@ -5816,7 +5842,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B22" s="1">
         <v>43872</v>
       </c>
@@ -5839,7 +5865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B23" s="1">
         <v>43872</v>
       </c>
@@ -5862,7 +5888,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B24" s="1">
         <v>43872</v>
       </c>
@@ -5885,7 +5911,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B25" s="1">
         <v>43872</v>
       </c>
@@ -5912,7 +5938,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>4</v>
       </c>
@@ -5938,7 +5964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B27" s="1">
         <v>43874</v>
       </c>
@@ -5961,7 +5987,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B28" s="1">
         <v>43875</v>
       </c>
@@ -5984,7 +6010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B29" s="1">
         <v>43876</v>
       </c>
@@ -6007,7 +6033,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B30" s="1">
         <v>43877</v>
       </c>
@@ -6030,7 +6056,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B31" s="1">
         <v>43878</v>
       </c>
@@ -6057,7 +6083,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>5</v>
       </c>
@@ -6083,7 +6109,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B33" s="1">
         <v>43880</v>
       </c>
@@ -6106,7 +6132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B34" s="1">
         <v>43881</v>
       </c>
@@ -6129,7 +6155,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B35" s="1">
         <v>43882</v>
       </c>
@@ -6152,7 +6178,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B36" s="1">
         <v>43883</v>
       </c>
@@ -6175,7 +6201,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B37" s="1">
         <v>43884</v>
       </c>
@@ -6202,7 +6228,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>6</v>
       </c>
@@ -6228,7 +6254,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B39" s="1">
         <v>43886</v>
       </c>
@@ -6251,7 +6277,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B40" s="1">
         <v>43887</v>
       </c>
@@ -6274,7 +6300,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B41" s="1">
         <v>43888</v>
       </c>
@@ -6297,7 +6323,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B42" s="1">
         <v>43889</v>
       </c>
@@ -6320,7 +6346,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B43" s="1">
         <v>43890</v>
       </c>
@@ -6347,7 +6373,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>7</v>
       </c>
@@ -6373,7 +6399,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B45" s="1">
         <v>43892</v>
       </c>
@@ -6396,7 +6422,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B46" s="1">
         <v>43893</v>
       </c>
@@ -6419,7 +6445,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B47" s="1">
         <v>43894</v>
       </c>
@@ -6442,7 +6468,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B48" s="1">
         <v>43895</v>
       </c>
@@ -6465,7 +6491,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B49" s="1">
         <v>43896</v>
       </c>
@@ -6492,7 +6518,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>8</v>
       </c>
@@ -6518,7 +6544,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B51" s="1">
         <v>43898</v>
       </c>
@@ -6541,7 +6567,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B52" s="1">
         <v>43899</v>
       </c>
@@ -6564,7 +6590,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B53" s="1">
         <v>43900</v>
       </c>
@@ -6587,7 +6613,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B54" s="1">
         <v>43901</v>
       </c>
@@ -6610,7 +6636,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B55" s="1">
         <v>43902</v>
       </c>
@@ -6637,7 +6663,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>9</v>
       </c>
@@ -6663,7 +6689,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B57" s="1">
         <v>43904</v>
       </c>
@@ -6686,7 +6712,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B58" s="1">
         <v>43905</v>
       </c>
@@ -6709,7 +6735,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B59" s="1">
         <v>43906</v>
       </c>
@@ -6732,7 +6758,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B60" s="1">
         <v>43907</v>
       </c>
@@ -6755,7 +6781,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B61" s="1">
         <v>43908</v>
       </c>
@@ -6782,7 +6808,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>10</v>
       </c>
@@ -6808,7 +6834,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B63" s="1">
         <v>43910</v>
       </c>
@@ -6831,7 +6857,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B64" s="1">
         <v>43911</v>
       </c>
@@ -6854,7 +6880,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B65" s="1">
         <v>43912</v>
       </c>
@@ -6877,7 +6903,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B66" s="1">
         <v>43913</v>
       </c>
@@ -6900,7 +6926,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B67" s="1">
         <v>43914</v>
       </c>
@@ -6938,20 +6964,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M3" sqref="M3:M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -6964,7 +6990,7 @@
       </c>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>19</v>
       </c>
@@ -6993,7 +7019,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43875.541666666664</v>
       </c>
@@ -7031,7 +7057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43875.541666666664</v>
       </c>
@@ -7066,7 +7092,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43875</v>
       </c>
@@ -7102,7 +7128,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43875</v>
       </c>
@@ -7138,7 +7164,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43875</v>
       </c>
@@ -7177,7 +7203,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>43875</v>
       </c>
@@ -7213,7 +7239,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>43878.270833333336</v>
       </c>
@@ -7249,7 +7275,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>43878.270833333336</v>
       </c>
@@ -7296,31 +7322,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>27</v>
       </c>
@@ -7358,7 +7384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
       <c r="B2" s="11" t="s">
         <v>21</v>
@@ -7415,7 +7441,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>43885.291666666664</v>
       </c>
@@ -7477,7 +7503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>43885.5</v>
       </c>
@@ -7515,7 +7541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>43886.270833333336</v>
       </c>
@@ -7583,7 +7609,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>43886.677083333336</v>
       </c>
@@ -7634,7 +7660,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>43887.270833333336</v>
       </c>
@@ -7703,7 +7729,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>43887.506944444445</v>
       </c>
@@ -7754,7 +7780,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>43888.270833333336</v>
       </c>
@@ -7816,7 +7842,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>43889.270833333336</v>
       </c>
@@ -7879,7 +7905,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="5"/>
       <c r="C11" s="8"/>
@@ -7900,7 +7926,7 @@
       <c r="R11" s="8"/>
       <c r="S11" s="9"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="5"/>
       <c r="C12" s="8"/>
@@ -7937,26 +7963,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -7986,7 +8012,7 @@
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8000,11 +8026,11 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E9" si="0">4.9*10^7*B2</f>
+        <f t="shared" ref="E2:E9" si="0">3*10^7*B2</f>
         <v>0</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F9" si="1">2.464*B2+0.023</f>
+        <f t="shared" ref="F2:F9" si="1">1*B2+0.023</f>
         <v>2.3E-2</v>
       </c>
       <c r="G2">
@@ -8020,7 +8046,7 @@
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5</v>
       </c>
@@ -8032,16 +8058,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <f>4.9*10^7*B3</f>
-        <v>1225000</v>
+        <f t="shared" si="0"/>
+        <v>750000</v>
       </c>
       <c r="F3">
-        <f>2.464*B3+0.023</f>
-        <v>8.4600000000000009E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="G3">
         <f>(1000*Table2[[#This Row],[Biomass(g/L)]])/24.6</f>
-        <v>3.4390243902439024</v>
+        <v>1.9512195121951219</v>
       </c>
       <c r="H3" s="9"/>
       <c r="J3" s="13"/>
@@ -8049,7 +8075,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>23.5</v>
       </c>
@@ -8064,15 +8090,15 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>68208000</v>
+        <v>41760000</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>3.4528879999999997</v>
+        <v>1.4149999999999998</v>
       </c>
       <c r="G4">
         <f>(1000*Table2[[#This Row],[Biomass(g/L)]])/24.6</f>
-        <v>140.36130081300811</v>
+        <v>57.520325203252021</v>
       </c>
       <c r="H4" s="9">
         <f>(((3.8*2)*(180.156)*(1/1000))/30)*1000</f>
@@ -8083,7 +8109,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>33.5</v>
       </c>
@@ -8098,15 +8124,15 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>84691600</v>
+        <v>51852000</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>4.2817775999999999</v>
+        <v>1.7513999999999998</v>
       </c>
       <c r="G5">
         <f>(1000*Table2[[#This Row],[Biomass(g/L)]])/24.6</f>
-        <v>174.05599999999995</v>
+        <v>71.195121951219505</v>
       </c>
       <c r="H5" s="9"/>
       <c r="J5" s="13"/>
@@ -8114,7 +8140,7 @@
       <c r="L5" s="12"/>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>47.5</v>
       </c>
@@ -8129,15 +8155,15 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>96995500</v>
+        <v>59385000</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>4.9004879999999993</v>
+        <v>2.0024999999999999</v>
       </c>
       <c r="G6">
         <f>(1000*Table2[[#This Row],[Biomass(g/L)]])/24.6</f>
-        <v>199.20682926829264</v>
+        <v>81.402439024390233</v>
       </c>
       <c r="H6" s="9">
         <f>(((2.4)*(180.156)*(1/1000))/30)*1000</f>
@@ -8148,7 +8174,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>52</v>
       </c>
@@ -8162,16 +8188,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <f>4.9*10^7*B7</f>
-        <v>98578200</v>
+        <f t="shared" si="0"/>
+        <v>60354000</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>4.9800751999999999</v>
+        <v>2.0348000000000002</v>
       </c>
       <c r="G7">
         <f>(1000*Table2[[#This Row],[Biomass(g/L)]])/24.6</f>
-        <v>202.44208130081302</v>
+        <v>82.715447154471548</v>
       </c>
       <c r="H7" s="9"/>
       <c r="J7" s="13"/>
@@ -8179,7 +8205,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>71.5</v>
       </c>
@@ -8194,15 +8220,15 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>120736000</v>
+        <v>73920000</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>6.0942959999999999</v>
+        <v>2.4870000000000001</v>
       </c>
       <c r="G8">
         <f>(1000*Table2[[#This Row],[Biomass(g/L)]])/24.6</f>
-        <v>247.73560975609755</v>
+        <v>101.09756097560975</v>
       </c>
       <c r="H8" s="9">
         <v>0</v>
@@ -8212,7 +8238,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>95.5</v>
       </c>
@@ -8227,15 +8253,15 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>105840000</v>
+        <v>64800000.000000007</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>5.3452399999999995</v>
+        <v>2.1830000000000003</v>
       </c>
       <c r="G9">
         <f>(1000*Table2[[#This Row],[Biomass(g/L)]])/24.6</f>
-        <v>217.28617886178858</v>
+        <v>88.739837398373993</v>
       </c>
       <c r="H9" s="9">
         <v>0</v>
@@ -8245,7 +8271,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -8260,22 +8286,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>27</v>
       </c>
@@ -8298,7 +8324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
       <c r="B2" s="11" t="s">
         <v>21</v>
@@ -8328,7 +8354,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>43889.5</v>
       </c>
@@ -8363,7 +8389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>43892.270833333336</v>
       </c>
@@ -8399,7 +8425,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>43893.270833333336</v>
       </c>
@@ -8438,7 +8464,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>43924.270833333336</v>
       </c>
@@ -8477,7 +8503,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>43954.270833333336</v>
       </c>
@@ -8516,7 +8542,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="5"/>
       <c r="C8" s="12"/>
@@ -8528,7 +8554,7 @@
       <c r="I8" s="12"/>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="5"/>
       <c r="C9" s="12"/>
@@ -8540,7 +8566,7 @@
       <c r="I9" s="12"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="5"/>
       <c r="C10" s="12"/>
@@ -8552,7 +8578,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="5"/>
       <c r="C11" s="8"/>
@@ -8564,7 +8590,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="5"/>
       <c r="C12" s="8"/>
@@ -8588,24 +8614,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8628,7 +8654,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8654,7 +8680,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5</v>
       </c>
@@ -8678,7 +8704,7 @@
         <v>8.4600000000000009E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>23.5</v>
       </c>
@@ -8704,7 +8730,7 @@
         <v>3.4528879999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>33.5</v>
       </c>
@@ -8730,7 +8756,7 @@
         <v>4.2817775999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>47.5</v>
       </c>
@@ -8756,7 +8782,7 @@
         <v>4.9004879999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>52</v>
       </c>
@@ -8782,7 +8808,7 @@
         <v>4.9800751999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>71.5</v>
       </c>
@@ -8808,7 +8834,7 @@
         <v>6.0942959999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>95.5</v>
       </c>

--- a/Nitrogen fixation/daSilva_ME_16052430_CSC_Data.xlsx
+++ b/Nitrogen fixation/daSilva_ME_16052430_CSC_Data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yasemin\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E425E15E-E008-4B4C-9F5B-17322DDECEA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment 1" sheetId="1" r:id="rId1"/>
@@ -23,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Experiment 1'!$B$1:$Q$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -163,7 +157,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss;@"/>
@@ -285,12 +279,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -322,6 +310,12 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -363,9 +357,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-ZA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -501,7 +495,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D43B-4714-82C0-55433530E9A9}"/>
             </c:ext>
@@ -603,7 +597,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D43B-4714-82C0-55433530E9A9}"/>
             </c:ext>
@@ -705,7 +699,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-D43B-4714-82C0-55433530E9A9}"/>
             </c:ext>
@@ -807,7 +801,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-D43B-4714-82C0-55433530E9A9}"/>
             </c:ext>
@@ -909,7 +903,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-D43B-4714-82C0-55433530E9A9}"/>
             </c:ext>
@@ -1011,7 +1005,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-D43B-4714-82C0-55433530E9A9}"/>
             </c:ext>
@@ -1025,11 +1019,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="222882432"/>
-        <c:axId val="222884608"/>
+        <c:axId val="319862656"/>
+        <c:axId val="319873024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="222882432"/>
+        <c:axId val="319862656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1057,12 +1051,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222884608"/>
+        <c:crossAx val="319873024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="222884608"/>
+        <c:axId val="319873024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1090,7 +1084,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222882432"/>
+        <c:crossAx val="319862656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1126,9 +1120,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-ZA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1256,7 +1250,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B08F-422E-BFB1-E26560DB0F91}"/>
             </c:ext>
@@ -1349,7 +1343,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B08F-422E-BFB1-E26560DB0F91}"/>
             </c:ext>
@@ -1363,11 +1357,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="231119872"/>
-        <c:axId val="231216640"/>
+        <c:axId val="320399616"/>
+        <c:axId val="320402176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="231119872"/>
+        <c:axId val="320399616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1395,12 +1389,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231216640"/>
+        <c:crossAx val="320402176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="231216640"/>
+        <c:axId val="320402176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1428,7 +1422,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231119872"/>
+        <c:crossAx val="320399616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1450,9 +1444,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-ZA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1570,7 +1564,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3421-430D-841A-BEC4281BDCEB}"/>
             </c:ext>
@@ -1654,7 +1648,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3421-430D-841A-BEC4281BDCEB}"/>
             </c:ext>
@@ -1668,11 +1662,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="231247232"/>
-        <c:axId val="231261696"/>
+        <c:axId val="320962944"/>
+        <c:axId val="320964864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="231247232"/>
+        <c:axId val="320962944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1700,12 +1694,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231261696"/>
+        <c:crossAx val="320964864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="231261696"/>
+        <c:axId val="320964864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1741,7 +1735,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231247232"/>
+        <c:crossAx val="320962944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1763,9 +1757,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-ZA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1875,7 +1869,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F8BD-492C-ACE8-12D7EEF5D603}"/>
             </c:ext>
@@ -1956,7 +1950,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F8BD-492C-ACE8-12D7EEF5D603}"/>
             </c:ext>
@@ -2037,7 +2031,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F8BD-492C-ACE8-12D7EEF5D603}"/>
             </c:ext>
@@ -2118,7 +2112,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-F8BD-492C-ACE8-12D7EEF5D603}"/>
             </c:ext>
@@ -2199,7 +2193,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-F8BD-492C-ACE8-12D7EEF5D603}"/>
             </c:ext>
@@ -2280,7 +2274,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-F8BD-492C-ACE8-12D7EEF5D603}"/>
             </c:ext>
@@ -2294,11 +2288,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="231371520"/>
-        <c:axId val="231373440"/>
+        <c:axId val="320460288"/>
+        <c:axId val="320462208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="231371520"/>
+        <c:axId val="320460288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2326,12 +2320,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231373440"/>
+        <c:crossAx val="320462208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="231373440"/>
+        <c:axId val="320462208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2359,7 +2353,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231371520"/>
+        <c:crossAx val="320460288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2381,9 +2375,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-ZA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2496,7 +2490,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E95A-4088-8F27-7DC14A04EBFA}"/>
             </c:ext>
@@ -2577,7 +2571,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E95A-4088-8F27-7DC14A04EBFA}"/>
             </c:ext>
@@ -2661,7 +2655,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E95A-4088-8F27-7DC14A04EBFA}"/>
             </c:ext>
@@ -2745,7 +2739,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E95A-4088-8F27-7DC14A04EBFA}"/>
             </c:ext>
@@ -2829,7 +2823,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-E95A-4088-8F27-7DC14A04EBFA}"/>
             </c:ext>
@@ -2913,7 +2907,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-E95A-4088-8F27-7DC14A04EBFA}"/>
             </c:ext>
@@ -2927,11 +2921,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="231486976"/>
-        <c:axId val="231488896"/>
+        <c:axId val="320772736"/>
+        <c:axId val="320787200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="231486976"/>
+        <c:axId val="320772736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2959,12 +2953,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231488896"/>
+        <c:crossAx val="320787200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="231488896"/>
+        <c:axId val="320787200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2992,7 +2986,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231486976"/>
+        <c:crossAx val="320772736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3014,9 +3008,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-ZA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3120,7 +3114,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1FB4-4CC3-A933-3E41EAE887CE}"/>
             </c:ext>
@@ -3195,7 +3189,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1FB4-4CC3-A933-3E41EAE887CE}"/>
             </c:ext>
@@ -3270,7 +3264,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1FB4-4CC3-A933-3E41EAE887CE}"/>
             </c:ext>
@@ -3345,7 +3339,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1FB4-4CC3-A933-3E41EAE887CE}"/>
             </c:ext>
@@ -3420,7 +3414,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-1FB4-4CC3-A933-3E41EAE887CE}"/>
             </c:ext>
@@ -3495,7 +3489,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-1FB4-4CC3-A933-3E41EAE887CE}"/>
             </c:ext>
@@ -3509,11 +3503,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="233834752"/>
-        <c:axId val="234094976"/>
+        <c:axId val="320818560"/>
+        <c:axId val="320828928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="233834752"/>
+        <c:axId val="320818560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3541,12 +3535,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="234094976"/>
+        <c:crossAx val="320828928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="234094976"/>
+        <c:axId val="320828928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3574,7 +3568,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="233834752"/>
+        <c:crossAx val="320818560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3596,9 +3590,9 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-ZA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3693,7 +3687,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-30BB-46C6-979F-83BABB151073}"/>
             </c:ext>
@@ -3759,7 +3753,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-30BB-46C6-979F-83BABB151073}"/>
             </c:ext>
@@ -3825,7 +3819,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-30BB-46C6-979F-83BABB151073}"/>
             </c:ext>
@@ -3839,11 +3833,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="234177280"/>
-        <c:axId val="234179200"/>
+        <c:axId val="321327104"/>
+        <c:axId val="321329024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="234177280"/>
+        <c:axId val="321327104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3871,12 +3865,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="234179200"/>
+        <c:crossAx val="321329024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="234179200"/>
+        <c:axId val="321329024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3904,7 +3898,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="234177280"/>
+        <c:crossAx val="321327104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3926,9 +3920,9 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-ZA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4023,7 +4017,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B86C-43B3-B6D9-192672E184E8}"/>
             </c:ext>
@@ -4089,7 +4083,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B86C-43B3-B6D9-192672E184E8}"/>
             </c:ext>
@@ -4155,7 +4149,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B86C-43B3-B6D9-192672E184E8}"/>
             </c:ext>
@@ -4169,11 +4163,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="234207104"/>
-        <c:axId val="234221568"/>
+        <c:axId val="321369216"/>
+        <c:axId val="321371136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="234207104"/>
+        <c:axId val="321369216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4201,12 +4195,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="234221568"/>
+        <c:crossAx val="321371136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="234221568"/>
+        <c:axId val="321371136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4234,7 +4228,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="234207104"/>
+        <c:crossAx val="321369216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4256,9 +4250,9 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-ZA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4353,7 +4347,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5C0F-4EC8-92C2-FED8D51D3738}"/>
             </c:ext>
@@ -4419,7 +4413,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5C0F-4EC8-92C2-FED8D51D3738}"/>
             </c:ext>
@@ -4485,7 +4479,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5C0F-4EC8-92C2-FED8D51D3738}"/>
             </c:ext>
@@ -4499,11 +4493,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="234241024"/>
-        <c:axId val="234255488"/>
+        <c:axId val="321534208"/>
+        <c:axId val="321552768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="234241024"/>
+        <c:axId val="321534208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4531,12 +4525,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="234255488"/>
+        <c:crossAx val="321552768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="234255488"/>
+        <c:axId val="321552768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4564,7 +4558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="234241024"/>
+        <c:crossAx val="321534208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4605,7 +4599,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4646,7 +4640,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4682,7 +4676,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4723,7 +4717,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4759,7 +4753,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4795,7 +4789,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4836,7 +4830,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4872,7 +4866,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4908,7 +4902,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4930,58 +4924,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="D1:I67" totalsRowShown="0">
-  <autoFilter ref="D1:I67" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D1:I67" totalsRowShown="0">
+  <autoFilter ref="D1:I67"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="date and time" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Sample Number"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Juju"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column2"/>
+    <tableColumn id="1" name="date and time" dataDxfId="11"/>
+    <tableColumn id="2" name="Sample Number"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Juju"/>
+    <tableColumn id="5" name="Column1"/>
+    <tableColumn id="6" name="Column2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:H9" totalsRowShown="0">
-  <autoFilter ref="A1:H9" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:H9" totalsRowShown="0">
+  <autoFilter ref="A1:H9"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Time"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Growth (OD600)" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="pH" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Ammonia"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Biomass (cells/mL)" dataDxfId="1">
+    <tableColumn id="1" name="Time"/>
+    <tableColumn id="2" name="Growth (OD600)" dataDxfId="10"/>
+    <tableColumn id="3" name="pH" dataDxfId="9"/>
+    <tableColumn id="4" name="Ammonia"/>
+    <tableColumn id="5" name="Biomass (cells/mL)" dataDxfId="8">
       <calculatedColumnFormula>3*10^7*B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Biomass(g/L)" dataDxfId="0">
+    <tableColumn id="6" name="Biomass(g/L)" dataDxfId="7">
       <calculatedColumnFormula>1*B2+0.023</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Biomass" dataDxfId="8">
+    <tableColumn id="7" name="Biomass" dataDxfId="6">
       <calculatedColumnFormula>(1000*Table2[[#This Row],[Biomass(g/L)]])/24.6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Glucose" dataDxfId="7"/>
+    <tableColumn id="8" name="Glucose" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table24" displayName="Table24" ref="A1:G9" totalsRowShown="0">
-  <autoFilter ref="A1:G9" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:G9" totalsRowShown="0">
+  <autoFilter ref="A1:G9"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Time"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Growth (OD600)" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="pH" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Ammonia"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Biomass (cells/mL)" dataDxfId="4">
+    <tableColumn id="1" name="Time"/>
+    <tableColumn id="2" name="Growth (OD600)" dataDxfId="4"/>
+    <tableColumn id="3" name="pH" dataDxfId="3"/>
+    <tableColumn id="4" name="Ammonia"/>
+    <tableColumn id="5" name="Biomass (cells/mL)" dataDxfId="2">
       <calculatedColumnFormula>4.9*10^7*B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Biomass(g/L)" dataDxfId="3">
+    <tableColumn id="6" name="Biomass(g/L)" dataDxfId="1">
       <calculatedColumnFormula>2.464*B2+0.023</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Biomass" dataDxfId="2">
+    <tableColumn id="7" name="Biomass" dataDxfId="0">
       <calculatedColumnFormula>2.464*B2+0.023</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5032,7 +5026,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5065,26 +5059,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5117,23 +5094,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5309,26 +5269,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:I67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" customWidth="1"/>
-    <col min="6" max="6" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.453125" customWidth="1"/>
-    <col min="11" max="11" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
@@ -5354,7 +5314,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -5386,7 +5346,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B3" s="1">
         <v>43871</v>
       </c>
@@ -5409,7 +5369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
         <v>43871</v>
       </c>
@@ -5432,7 +5392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>43871</v>
       </c>
@@ -5455,7 +5415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>43871</v>
       </c>
@@ -5478,7 +5438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
         <v>43871</v>
       </c>
@@ -5504,7 +5464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -5530,7 +5490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
         <v>43871</v>
       </c>
@@ -5553,7 +5513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <v>43871</v>
       </c>
@@ -5576,7 +5536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
         <v>43871</v>
       </c>
@@ -5599,7 +5559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B12" s="1">
         <v>43871</v>
       </c>
@@ -5622,7 +5582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
         <v>43871</v>
       </c>
@@ -5648,7 +5608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2</v>
       </c>
@@ -5674,7 +5634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <v>43872</v>
       </c>
@@ -5697,7 +5657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B16" s="1">
         <v>43872</v>
       </c>
@@ -5720,7 +5680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B17" s="1">
         <v>43872</v>
       </c>
@@ -5743,7 +5703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B18" s="1">
         <v>43872</v>
       </c>
@@ -5766,7 +5726,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B19" s="1">
         <v>43872</v>
       </c>
@@ -5793,7 +5753,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>3</v>
       </c>
@@ -5819,7 +5779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B21" s="1">
         <v>43872</v>
       </c>
@@ -5842,7 +5802,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B22" s="1">
         <v>43872</v>
       </c>
@@ -5865,7 +5825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B23" s="1">
         <v>43872</v>
       </c>
@@ -5888,7 +5848,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B24" s="1">
         <v>43872</v>
       </c>
@@ -5911,7 +5871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B25" s="1">
         <v>43872</v>
       </c>
@@ -5938,7 +5898,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>4</v>
       </c>
@@ -5964,7 +5924,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B27" s="1">
         <v>43874</v>
       </c>
@@ -5987,7 +5947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B28" s="1">
         <v>43875</v>
       </c>
@@ -6010,7 +5970,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B29" s="1">
         <v>43876</v>
       </c>
@@ -6033,7 +5993,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B30" s="1">
         <v>43877</v>
       </c>
@@ -6056,7 +6016,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B31" s="1">
         <v>43878</v>
       </c>
@@ -6083,7 +6043,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>5</v>
       </c>
@@ -6109,7 +6069,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B33" s="1">
         <v>43880</v>
       </c>
@@ -6132,7 +6092,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B34" s="1">
         <v>43881</v>
       </c>
@@ -6155,7 +6115,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B35" s="1">
         <v>43882</v>
       </c>
@@ -6178,7 +6138,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B36" s="1">
         <v>43883</v>
       </c>
@@ -6201,7 +6161,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B37" s="1">
         <v>43884</v>
       </c>
@@ -6228,7 +6188,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>6</v>
       </c>
@@ -6254,7 +6214,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B39" s="1">
         <v>43886</v>
       </c>
@@ -6277,7 +6237,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B40" s="1">
         <v>43887</v>
       </c>
@@ -6300,7 +6260,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B41" s="1">
         <v>43888</v>
       </c>
@@ -6323,7 +6283,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B42" s="1">
         <v>43889</v>
       </c>
@@ -6346,7 +6306,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>43890</v>
       </c>
@@ -6373,7 +6333,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>7</v>
       </c>
@@ -6399,7 +6359,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>43892</v>
       </c>
@@ -6422,7 +6382,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>43893</v>
       </c>
@@ -6445,7 +6405,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>43894</v>
       </c>
@@ -6468,7 +6428,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>43895</v>
       </c>
@@ -6491,7 +6451,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>43896</v>
       </c>
@@ -6518,7 +6478,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>8</v>
       </c>
@@ -6544,7 +6504,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>43898</v>
       </c>
@@ -6567,7 +6527,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>43899</v>
       </c>
@@ -6590,7 +6550,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>43900</v>
       </c>
@@ -6613,7 +6573,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>43901</v>
       </c>
@@ -6636,7 +6596,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>43902</v>
       </c>
@@ -6663,7 +6623,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>9</v>
       </c>
@@ -6689,7 +6649,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>43904</v>
       </c>
@@ -6712,7 +6672,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>43905</v>
       </c>
@@ -6735,7 +6695,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>43906</v>
       </c>
@@ -6758,7 +6718,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>43907</v>
       </c>
@@ -6781,7 +6741,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>43908</v>
       </c>
@@ -6808,7 +6768,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>10</v>
       </c>
@@ -6834,7 +6794,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>43910</v>
       </c>
@@ -6857,7 +6817,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>43911</v>
       </c>
@@ -6880,7 +6840,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>43912</v>
       </c>
@@ -6903,7 +6863,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>43913</v>
       </c>
@@ -6926,7 +6886,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>43914</v>
       </c>
@@ -6964,17 +6924,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M3" sqref="M3:M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
@@ -7322,28 +7282,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
@@ -7963,23 +7923,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="5" max="5" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -8286,19 +8246,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.26953125" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -8614,21 +8574,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
